--- a/pred_ohlcv/54_21/2020-01-16 XVG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 XVG ohlcv.xlsx
@@ -2160,7 +2160,7 @@
         <v>-2061011.10697787</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-2061011.10697787</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-2061011.10697787</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-2030088.60697787</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-2025923.58967787</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-2043583.58967787</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-2043814.95907787</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-2217075.30527787</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-2216949.30527787</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-2216949.30527787</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-2216949.30527787</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-2216949.30527787</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-2216949.30527787</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-2443756.08706579</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-2725925.14716579</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-2725925.14716579</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-2728442.48716579</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-2670716.24296579</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-2670716.24296579</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-2688933.97596579</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-2743761.57096579</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-2743761.57096579</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-2136881.85856579</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-2141883.85856579</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-2131883.85856579</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-1958973.72616579</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-2784931.06551591</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-2784931.06551591</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-2592210.63581591</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-2578655.63581591</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-2592205.63581591</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-505979.9821753398</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-420419.9821753398</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-420540.3481753398</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-419036.6294753398</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-457885.6848753398</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-707885.6848753397</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-707885.6848753397</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-699600.4540753397</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-704600.4540753397</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-859600.4540753397</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-869091.5490753397</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-869091.5490753397</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-869091.5490753397</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-869091.5490753397</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-926450.5490753397</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-675224.0481753397</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-655563.5396753397</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-659339.5396753397</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-624151.7408753397</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-750185.9298753397</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-689218.3971753397</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-689218.3971753397</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-689218.3971753397</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-832783.8299753398</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-832145.8495753398</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-832145.8495753398</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-829660.5847753398</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-831030.5847753398</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-841696.6778753399</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-870098.6778753399</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-683089.0873753398</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-903528.0873753398</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-1032234.08737534</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-1032234.08737534</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-1030378.76097534</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-1030378.76097534</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-1030378.76097534</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-1031378.76097534</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-1031378.76097534</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-2410735.190864609</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-2543174.190864609</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 XVG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 XVG ohlcv.xlsx
@@ -2238,7 +2238,7 @@
         <v>-2030088.60697787</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-2025923.58967787</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-2043583.58967787</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-2043814.95907787</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-2217075.30527787</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-2216949.30527787</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-2216949.30527787</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-2216949.30527787</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-2216949.30527787</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-2216949.30527787</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-2216949.30527787</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-2216949.30527787</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-2209149.30527787</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-2443756.08706579</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-2725925.14716579</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-2725925.14716579</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-2728442.48716579</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-2670716.24296579</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-2670716.24296579</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-2688933.97596579</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-2743761.57096579</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-2743761.57096579</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-2743761.57096579</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-2136881.85856579</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-2141883.85856579</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-2131883.85856579</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-1958973.72616579</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-2784931.06551591</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-2784931.06551591</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-2592210.63581591</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-2578655.63581591</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-2592205.63581591</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-420419.9821753398</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-420540.3481753398</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-419036.6294753398</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-457885.6848753398</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-707885.6848753397</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-707885.6848753397</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-699600.4540753397</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-704600.4540753397</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-859600.4540753397</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-869091.5490753397</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-869091.5490753397</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-869091.5490753397</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-926450.5490753397</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-675224.0481753397</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-655563.5396753397</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-659339.5396753397</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-624151.7408753397</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-750185.9298753397</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-689218.3971753397</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-689218.3971753397</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-689218.3971753397</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-832783.8299753398</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-832145.8495753398</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-832145.8495753398</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-829660.5847753398</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-831030.5847753398</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-841696.6778753399</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-870098.6778753399</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-683089.0873753398</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-903528.0873753398</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-1032234.08737534</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-2410735.190864609</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-2543174.190864609</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-2039303.190864609</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-1939303.190864609</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-1944935.431264609</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
